--- a/backend/Data/Sustainble Technologies Sample Database.xlsx
+++ b/backend/Data/Sustainble Technologies Sample Database.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C745B6F-2CCA-4506-ACAF-EFC90CD54447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salim\Downloads\GRNShift-Navigator\backend\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D809A-CAD5-4A3A-912E-1E84C83ACD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +43,17 @@
   <commentList>
     <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2ED9461A-45EA-4574-9143-96A7AE84C0D8}">
       <text>
-        <t xml:space="preserve">Alex Zelenski:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Alex Zelenski:
 If address is provided we can plug into GoogleMaps API and pull historical energy, weather, and property data. Need to incentivize users to provide this info. </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -443,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -660,23 +674,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -692,24 +698,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,13 +1053,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:I30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -1067,76 +1075,76 @@
     <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2">
@@ -1170,14 +1178,14 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2">
@@ -1211,14 +1219,14 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3">
@@ -1252,14 +1260,14 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="20">
         <v>155000</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="3">
@@ -1293,14 +1301,14 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2">
@@ -1332,14 +1340,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="4">
@@ -1373,14 +1381,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="4">
         <v>2400</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="4">
@@ -1412,14 +1420,14 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="3">
@@ -1453,14 +1461,14 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="21">
         <v>0.3</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="2">
@@ -1494,14 +1502,14 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="4">
         <v>10000</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="2">
@@ -1535,441 +1543,421 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="20" t="s">
         <v>66</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="D15" s="21" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="D16" s="6" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="4:16">
-      <c r="D17" s="6" t="s">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="4:16">
-      <c r="D18" s="8" t="s">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="4:16">
-      <c r="D19" s="8" t="s">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="4:16">
-      <c r="D20" s="6" t="s">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="4:16">
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="4:16">
-      <c r="D22" s="17" t="s">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="4:16">
-      <c r="D23" s="21" t="s">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="4:16">
-      <c r="D24" s="6" t="s">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>4.8</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="4:16">
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>4.7</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="4:16">
-      <c r="D26" s="6" t="s">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="4:16">
-      <c r="D27" s="6" t="s">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="9">
         <v>4.5</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="4:16">
-      <c r="D28" s="6" t="s">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="4:16">
-      <c r="D29" s="6" t="s">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="4:16">
-      <c r="D30" s="6" t="s">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="9">
         <v>4.8</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="4:16">
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="4:16">
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/backend/Data/Sustainble Technologies Sample Database.xlsx
+++ b/backend/Data/Sustainble Technologies Sample Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salim\Downloads\GRNShift-Navigator\backend\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D809A-CAD5-4A3A-912E-1E84C83ACD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4863576-9BE6-4D39-9DAA-81B1A5B6C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,9 +345,6 @@
     <t xml:space="preserve">Active </t>
   </si>
   <si>
-    <t>Energy Storgae Systems Loan</t>
-  </si>
-  <si>
     <t>$5,000 to support the installation of energy storage systems</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>CEDIA Member, CompTIA IT Certified</t>
+  </si>
+  <si>
+    <t>Energy Storage Systems Loan</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,19 +1710,19 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>93</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1769,19 +1769,19 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="H23" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="9">
         <v>4.8</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H25" s="9">
         <v>4.7</v>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="H26" s="9">
         <v>4.9000000000000004</v>
@@ -1865,16 +1865,16 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="H27" s="9">
         <v>4.5</v>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="H28" s="9">
         <v>4.4000000000000004</v>
@@ -1913,16 +1913,16 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H29" s="9">
         <v>4.9000000000000004</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="9">
         <v>4.8</v>
